--- a/test-tee.xlsx
+++ b/test-tee.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -49,8 +49,24 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <color theme="1"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -64,8 +80,15 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -73,6 +96,22 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -86,30 +125,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <charset val="0"/>
       <b val="1"/>
       <color theme="1"/>
@@ -118,23 +133,39 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <charset val="0"/>
       <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -156,45 +187,7 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -208,55 +201,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,127 +375,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,17 +432,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,17 +451,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -491,33 +473,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,167 +496,199 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="5" numFmtId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="18" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="22" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="26" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="8" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="32" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="26" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="3" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="13" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="6" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="2" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="13" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="23" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1048,13 +1040,14 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="22.8533333333333"/>
-    <col customWidth="1" max="2" min="2" style="5" width="28.5733333333333"/>
+    <col customWidth="1" max="2" min="2" style="1" width="28.5733333333333"/>
+    <col customWidth="1" max="7" min="7" width="89.09999999999999"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="64.5" r="1">
@@ -1078,51 +1071,27 @@
           <t>Success</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>ERROR</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>IP</t>
         </is>
       </c>
-      <c r="G1" s="8" t="inlineStr">
-        <is>
-          <t>Products ordered</t>
-        </is>
-      </c>
-      <c r="H1" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Profit (includes pending profit)
-</t>
-        </is>
-      </c>
-      <c r="I1" s="8" t="inlineStr">
-        <is>
-          <t>Products ordered</t>
-        </is>
-      </c>
-      <c r="J1" s="8" t="n"/>
-      <c r="K1" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Profit (includes pending profit)
-</t>
-        </is>
-      </c>
-      <c r="L1" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Products ordered
-</t>
-        </is>
-      </c>
-      <c r="M1" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Profit
-</t>
-        </is>
-      </c>
+      <c r="G1" s="7" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="H1" s="8" t="n"/>
+      <c r="I1" s="7" t="n"/>
+      <c r="J1" s="7" t="n"/>
+      <c r="K1" s="8" t="n"/>
+      <c r="L1" s="8" t="n"/>
+      <c r="M1" s="8" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
@@ -1130,17 +1099,54 @@
           <t xml:space="preserve">janos.bojtos75@gmail.com </t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>0939320333</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{"message":"Sorry, that is not a valid login!","field":"form"}</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Sign.Check.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">### 0
+Products ordered __
+### $0
+Profit (includes pending profit)
+__
+### 0
+Products ordered __
+### $0
+Profit (includes pending profit)
+__
+### 0
+Products ordered
+### $0
+Profit
+### $0
+Pending profit
+### $0
+Charged profit
+### $0
+To be paid
+### $0
+Total donations
+### 22
+Total products sold
+### $124
+Total profit
+### $0
+Total donations
+</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
@@ -1148,22 +1154,54 @@
           <t>rafai.soma@gmail.com</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>0939320333</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{"user":{"id":4202563,"email":"rafai.soma@gmail.com","last_campaign":{"region":"USA","currency":"USD"}},"message":"Success!","redirect_url":"/dashboard"}</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>Sign.Check.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">### 0
+Products ordered __
+### $0
+Profit (includes pending profit)
+__
+### 0
+Products ordered __
+### $0
+Profit (includes pending profit)
+__
+### 0
+Products ordered
+### $0
+Profit
+### $0
+Pending profit
+### $0
+Charged profit
+### $0
+To be paid
+### $0
+Total donations
+### 9
+Total products sold
+### $36
+Total profit
+### $0
+Total donations
+</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
@@ -1171,15 +1209,52 @@
           <t>balintkaliba10@gmail.com</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>0939320333</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Blocked IP</t>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Sign.Check.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">### 0
+Products ordered __
+### $0
+Profit (includes pending profit)
+__
+### 0
+Products ordered __
+### $0
+Profit (includes pending profit)
+__
+### 0
+Products ordered
+### $0
+Profit
+### $0
+Pending profit
+### $0
+Charged profit
+### $12
+To be paid
+### $0
+Total donations
+### 9
+Total products sold
+### $55
+Total profit
+### $0
+Total donations
+</t>
         </is>
       </c>
     </row>
@@ -1189,9 +1264,53 @@
           <t xml:space="preserve">coronitamogel@gmail.com </t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>0939320333</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Sign.Check.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">### 0
+Products ordered __
+### $0
+Profit (includes pending profit)
+__
+### 0
+Products ordered __
+### $0
+Profit (includes pending profit)
+__
+### 0
+Products ordered
+### $0
+Profit
+### $0
+Pending profit
+### $0
+Charged profit
+### $0
+To be paid
+### $0
+Total donations
+### 31
+Total products sold
+### $150
+Total profit
+### $0
+Total donations
+</t>
         </is>
       </c>
     </row>
@@ -1201,9 +1320,52 @@
           <t xml:space="preserve">boroskola1996@gmail.com </t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>0939320333</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Sign.Check.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">### 0
+Products ordered __
+### $0
+Profit (includes pending profit)
+__
+### 0
+Products ordered __
+### $0
+Profit (includes pending profit)
+__
+### 0
+Products ordered
+### $0
+Profit
+### $0
+Pending profit
+### $0
+Charged profit
+### $4
+To be paid
+### $0
+Total donations
+### 2
+Total products sold
+### $8
+Total profit
+### $0
+Total donations
+</t>
         </is>
       </c>
     </row>
@@ -1213,9 +1375,14 @@
           <t>davepetrohan@gmail.com</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>0939320333</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Account Disabled. Please contact customer service for more information.</t>
         </is>
       </c>
     </row>
@@ -1225,9 +1392,52 @@
           <t xml:space="preserve">nagy.miklos2004@gmail.com </t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>0939320333</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Sign.Check.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">### 0
+Products ordered __
+### $0
+Profit (includes pending profit)
+__
+### 0
+Products ordered __
+### $0
+Profit (includes pending profit)
+__
+### 0
+Products ordered
+### $0
+Profit
+### $0
+Pending profit
+### $0
+Charged profit
+### $8
+To be paid
+### $0
+Total donations
+### 4
+Total products sold
+### $14
+Total profit
+### $0
+Total donations
+</t>
         </is>
       </c>
     </row>
@@ -1237,9 +1447,52 @@
           <t xml:space="preserve">lajospalfi4@gmail.com </t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>0939320333</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Sign.Check.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">### 0
+Products ordered __
+### $0
+Profit (includes pending profit)
+__
+### 0
+Products ordered __
+### $0
+Profit (includes pending profit)
+__
+### 0
+Products ordered
+### $0
+Profit
+### $0
+Pending profit
+### $0
+Charged profit
+### $0
+To be paid
+### $0
+Total donations
+### 0
+Total products sold
+### $0
+Total profit
+### $0
+Total donations
+</t>
         </is>
       </c>
     </row>
@@ -1249,9 +1502,52 @@
           <t xml:space="preserve">szonyib6@gmail.com </t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>0939320333</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Sign.Check.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">### 0
+Products ordered __
+### $0
+Profit (includes pending profit)
+__
+### 0
+Products ordered __
+### $0
+Profit (includes pending profit)
+__
+### 0
+Products ordered
+### $0
+Profit
+### $0
+Pending profit
+### $0
+Charged profit
+### $0
+To be paid
+### $0
+Total donations
+### 10
+Total products sold
+### $74
+Total profit
+### $0
+Total donations
+</t>
         </is>
       </c>
     </row>
@@ -1261,134 +1557,77 @@
           <t>sasomaru78@gmail.com</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>0939320333</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Sign.Check.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">### 0
+Products ordered __
+### $0
+Profit (includes pending profit)
+__
+### 0
+Products ordered __
+### $0
+Profit (includes pending profit)
+__
+### 0
+Products ordered
+### $0
+Profit
+### $0
+Pending profit
+### $0
+Charged profit
+### $0
+To be paid
+### $0
+Total donations
+### 0
+Total products sold
+### $0
+Total profit
+### $0
+Total donations
+</t>
         </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="janos.bojtos75@gmail.com " ref="A2" r:id="rId111"/>
-    <hyperlink display="rafai.soma@gmail.com" ref="A3" r:id="rId112"/>
-    <hyperlink display="balintkaliba10@gmail.com" ref="A4" r:id="rId113"/>
-    <hyperlink display="coronitamogel@gmail.com " ref="A5" r:id="rId114"/>
-    <hyperlink display="boroskola1996@gmail.com " ref="A6" r:id="rId115"/>
-    <hyperlink display="davepetrohan@gmail.com" ref="A7" r:id="rId116"/>
-    <hyperlink display="nagy.miklos2004@gmail.com " ref="A8" r:id="rId117"/>
-    <hyperlink display="lajospalfi4@gmail.com " ref="A9" r:id="rId118"/>
-    <hyperlink display="szonyib6@gmail.com " ref="A10" r:id="rId119"/>
-    <hyperlink display="sasomaru78@gmail.com" ref="A11" r:id="rId120"/>
-    <hyperlink display="janos.bojtos75@gmail.com " ref="A2" r:id="rId111"/>
-    <hyperlink display="rafai.soma@gmail.com" ref="A3" r:id="rId112"/>
-    <hyperlink display="balintkaliba10@gmail.com" ref="A4" r:id="rId113"/>
-    <hyperlink display="coronitamogel@gmail.com " ref="A5" r:id="rId114"/>
-    <hyperlink display="boroskola1996@gmail.com " ref="A6" r:id="rId115"/>
-    <hyperlink display="davepetrohan@gmail.com" ref="A7" r:id="rId116"/>
-    <hyperlink display="nagy.miklos2004@gmail.com " ref="A8" r:id="rId117"/>
-    <hyperlink display="lajospalfi4@gmail.com " ref="A9" r:id="rId118"/>
-    <hyperlink display="szonyib6@gmail.com " ref="A10" r:id="rId119"/>
-    <hyperlink display="sasomaru78@gmail.com" ref="A11" r:id="rId120"/>
-    <hyperlink display="janos.bojtos75@gmail.com " ref="A2" r:id="rId111"/>
-    <hyperlink display="rafai.soma@gmail.com" ref="A3" r:id="rId112"/>
-    <hyperlink display="balintkaliba10@gmail.com" ref="A4" r:id="rId113"/>
-    <hyperlink display="coronitamogel@gmail.com " ref="A5" r:id="rId114"/>
-    <hyperlink display="boroskola1996@gmail.com " ref="A6" r:id="rId115"/>
-    <hyperlink display="davepetrohan@gmail.com" ref="A7" r:id="rId116"/>
-    <hyperlink display="nagy.miklos2004@gmail.com " ref="A8" r:id="rId117"/>
-    <hyperlink display="lajospalfi4@gmail.com " ref="A9" r:id="rId118"/>
-    <hyperlink display="szonyib6@gmail.com " ref="A10" r:id="rId119"/>
-    <hyperlink display="sasomaru78@gmail.com" ref="A11" r:id="rId120"/>
-    <hyperlink display="janos.bojtos75@gmail.com " ref="A2" r:id="rId111"/>
-    <hyperlink display="rafai.soma@gmail.com" ref="A3" r:id="rId112"/>
-    <hyperlink display="balintkaliba10@gmail.com" ref="A4" r:id="rId113"/>
-    <hyperlink display="coronitamogel@gmail.com " ref="A5" r:id="rId114"/>
-    <hyperlink display="boroskola1996@gmail.com " ref="A6" r:id="rId115"/>
-    <hyperlink display="davepetrohan@gmail.com" ref="A7" r:id="rId116"/>
-    <hyperlink display="nagy.miklos2004@gmail.com " ref="A8" r:id="rId117"/>
-    <hyperlink display="lajospalfi4@gmail.com " ref="A9" r:id="rId118"/>
-    <hyperlink display="szonyib6@gmail.com " ref="A10" r:id="rId119"/>
-    <hyperlink display="sasomaru78@gmail.com" ref="A11" r:id="rId120"/>
-    <hyperlink display="janos.bojtos75@gmail.com " ref="A2" r:id="rId111"/>
-    <hyperlink display="rafai.soma@gmail.com" ref="A3" r:id="rId112"/>
-    <hyperlink display="balintkaliba10@gmail.com" ref="A4" r:id="rId113"/>
-    <hyperlink display="coronitamogel@gmail.com " ref="A5" r:id="rId114"/>
-    <hyperlink display="boroskola1996@gmail.com " ref="A6" r:id="rId115"/>
-    <hyperlink display="davepetrohan@gmail.com" ref="A7" r:id="rId116"/>
-    <hyperlink display="nagy.miklos2004@gmail.com " ref="A8" r:id="rId117"/>
-    <hyperlink display="lajospalfi4@gmail.com " ref="A9" r:id="rId118"/>
-    <hyperlink display="szonyib6@gmail.com " ref="A10" r:id="rId119"/>
-    <hyperlink display="sasomaru78@gmail.com" ref="A11" r:id="rId120"/>
-    <hyperlink display="janos.bojtos75@gmail.com " ref="A2" r:id="rId111"/>
-    <hyperlink display="rafai.soma@gmail.com" ref="A3" r:id="rId112"/>
-    <hyperlink display="balintkaliba10@gmail.com" ref="A4" r:id="rId113"/>
-    <hyperlink display="coronitamogel@gmail.com " ref="A5" r:id="rId114"/>
-    <hyperlink display="boroskola1996@gmail.com " ref="A6" r:id="rId115"/>
-    <hyperlink display="davepetrohan@gmail.com" ref="A7" r:id="rId116"/>
-    <hyperlink display="nagy.miklos2004@gmail.com " ref="A8" r:id="rId117"/>
-    <hyperlink display="lajospalfi4@gmail.com " ref="A9" r:id="rId118"/>
-    <hyperlink display="szonyib6@gmail.com " ref="A10" r:id="rId119"/>
-    <hyperlink display="sasomaru78@gmail.com" ref="A11" r:id="rId120"/>
-    <hyperlink display="janos.bojtos75@gmail.com " ref="A2" r:id="rId111"/>
-    <hyperlink display="rafai.soma@gmail.com" ref="A3" r:id="rId112"/>
-    <hyperlink display="balintkaliba10@gmail.com" ref="A4" r:id="rId113"/>
-    <hyperlink display="coronitamogel@gmail.com " ref="A5" r:id="rId114"/>
-    <hyperlink display="boroskola1996@gmail.com " ref="A6" r:id="rId115"/>
-    <hyperlink display="davepetrohan@gmail.com" ref="A7" r:id="rId116"/>
-    <hyperlink display="nagy.miklos2004@gmail.com " ref="A8" r:id="rId117"/>
-    <hyperlink display="lajospalfi4@gmail.com " ref="A9" r:id="rId118"/>
-    <hyperlink display="szonyib6@gmail.com " ref="A10" r:id="rId119"/>
-    <hyperlink display="sasomaru78@gmail.com" ref="A11" r:id="rId120"/>
-    <hyperlink display="janos.bojtos75@gmail.com " ref="A2" r:id="rId111"/>
-    <hyperlink display="rafai.soma@gmail.com" ref="A3" r:id="rId112"/>
-    <hyperlink display="balintkaliba10@gmail.com" ref="A4" r:id="rId113"/>
-    <hyperlink display="coronitamogel@gmail.com " ref="A5" r:id="rId114"/>
-    <hyperlink display="boroskola1996@gmail.com " ref="A6" r:id="rId115"/>
-    <hyperlink display="davepetrohan@gmail.com" ref="A7" r:id="rId116"/>
-    <hyperlink display="nagy.miklos2004@gmail.com " ref="A8" r:id="rId117"/>
-    <hyperlink display="lajospalfi4@gmail.com " ref="A9" r:id="rId118"/>
-    <hyperlink display="szonyib6@gmail.com " ref="A10" r:id="rId119"/>
-    <hyperlink display="sasomaru78@gmail.com" ref="A11" r:id="rId120"/>
-    <hyperlink display="janos.bojtos75@gmail.com " ref="A2" r:id="rId111"/>
-    <hyperlink display="rafai.soma@gmail.com" ref="A3" r:id="rId112"/>
-    <hyperlink display="balintkaliba10@gmail.com" ref="A4" r:id="rId113"/>
-    <hyperlink display="coronitamogel@gmail.com " ref="A5" r:id="rId114"/>
-    <hyperlink display="boroskola1996@gmail.com " ref="A6" r:id="rId115"/>
-    <hyperlink display="davepetrohan@gmail.com" ref="A7" r:id="rId116"/>
-    <hyperlink display="nagy.miklos2004@gmail.com " ref="A8" r:id="rId117"/>
-    <hyperlink display="lajospalfi4@gmail.com " ref="A9" r:id="rId118"/>
-    <hyperlink display="szonyib6@gmail.com " ref="A10" r:id="rId119"/>
-    <hyperlink display="sasomaru78@gmail.com" ref="A11" r:id="rId120"/>
-    <hyperlink display="janos.bojtos75@gmail.com " ref="A2" r:id="rId111"/>
-    <hyperlink display="rafai.soma@gmail.com" ref="A3" r:id="rId112"/>
-    <hyperlink display="balintkaliba10@gmail.com" ref="A4" r:id="rId113"/>
-    <hyperlink display="coronitamogel@gmail.com " ref="A5" r:id="rId114"/>
-    <hyperlink display="boroskola1996@gmail.com " ref="A6" r:id="rId115"/>
-    <hyperlink display="davepetrohan@gmail.com" ref="A7" r:id="rId116"/>
-    <hyperlink display="nagy.miklos2004@gmail.com " ref="A8" r:id="rId117"/>
-    <hyperlink display="lajospalfi4@gmail.com " ref="A9" r:id="rId118"/>
-    <hyperlink display="szonyib6@gmail.com " ref="A10" r:id="rId119"/>
-    <hyperlink display="sasomaru78@gmail.com" ref="A11" r:id="rId120"/>
-    <hyperlink display="janos.bojtos75@gmail.com " ref="A2" r:id="rId111"/>
-    <hyperlink display="rafai.soma@gmail.com" ref="A3" r:id="rId112"/>
-    <hyperlink display="balintkaliba10@gmail.com" ref="A4" r:id="rId113"/>
-    <hyperlink display="coronitamogel@gmail.com " ref="A5" r:id="rId114"/>
-    <hyperlink display="boroskola1996@gmail.com " ref="A6" r:id="rId115"/>
-    <hyperlink display="davepetrohan@gmail.com" ref="A7" r:id="rId116"/>
-    <hyperlink display="nagy.miklos2004@gmail.com " ref="A8" r:id="rId117"/>
-    <hyperlink display="lajospalfi4@gmail.com " ref="A9" r:id="rId118"/>
-    <hyperlink display="szonyib6@gmail.com " ref="A10" r:id="rId119"/>
-    <hyperlink display="sasomaru78@gmail.com" ref="A11" r:id="rId120"/>
-    <hyperlink display="janos.bojtos75@gmail.com " ref="A2" r:id="rId111"/>
-    <hyperlink display="rafai.soma@gmail.com" ref="A3" r:id="rId112"/>
-    <hyperlink display="balintkaliba10@gmail.com" ref="A4" r:id="rId113"/>
-    <hyperlink display="coronitamogel@gmail.com " ref="A5" r:id="rId114"/>
-    <hyperlink display="boroskola1996@gmail.com " ref="A6" r:id="rId115"/>
-    <hyperlink display="davepetrohan@gmail.com" ref="A7" r:id="rId116"/>
-    <hyperlink display="nagy.miklos2004@gmail.com " ref="A8" r:id="rId117"/>
-    <hyperlink display="lajospalfi4@gmail.com " ref="A9" r:id="rId118"/>
-    <hyperlink display="szonyib6@gmail.com " ref="A10" r:id="rId119"/>
-    <hyperlink display="sasomaru78@gmail.com" ref="A11" r:id="rId120"/>
+    <hyperlink display="janos.bojtos75@gmail.com " ref="A2" r:id="rId11"/>
+    <hyperlink display="rafai.soma@gmail.com" ref="A3" r:id="rId12"/>
+    <hyperlink display="balintkaliba10@gmail.com" ref="A4" r:id="rId13"/>
+    <hyperlink display="coronitamogel@gmail.com " ref="A5" r:id="rId14"/>
+    <hyperlink display="boroskola1996@gmail.com " ref="A6" r:id="rId15"/>
+    <hyperlink display="davepetrohan@gmail.com" ref="A7" r:id="rId16"/>
+    <hyperlink display="nagy.miklos2004@gmail.com " ref="A8" r:id="rId17"/>
+    <hyperlink display="lajospalfi4@gmail.com " ref="A9" r:id="rId18"/>
+    <hyperlink display="szonyib6@gmail.com " ref="A10" r:id="rId19"/>
+    <hyperlink display="sasomaru78@gmail.com" ref="A11" r:id="rId20"/>
+    <hyperlink display="janos.bojtos75@gmail.com " ref="A2" r:id="rId11"/>
+    <hyperlink display="rafai.soma@gmail.com" ref="A3" r:id="rId12"/>
+    <hyperlink display="balintkaliba10@gmail.com" ref="A4" r:id="rId13"/>
+    <hyperlink display="coronitamogel@gmail.com " ref="A5" r:id="rId14"/>
+    <hyperlink display="boroskola1996@gmail.com " ref="A6" r:id="rId15"/>
+    <hyperlink display="davepetrohan@gmail.com" ref="A7" r:id="rId16"/>
+    <hyperlink display="nagy.miklos2004@gmail.com " ref="A8" r:id="rId17"/>
+    <hyperlink display="lajospalfi4@gmail.com " ref="A9" r:id="rId18"/>
+    <hyperlink display="szonyib6@gmail.com " ref="A10" r:id="rId19"/>
+    <hyperlink display="sasomaru78@gmail.com" ref="A11" r:id="rId20"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
